--- a/biology/Zoologie/Jemadia_hewitsonii/Jemadia_hewitsonii.xlsx
+++ b/biology/Zoologie/Jemadia_hewitsonii/Jemadia_hewitsonii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jemadia hewitsonii est une espèce de lépidoptères de la famille des Hesperiidae, de la sous-famille des Pyrginae et de la tribu des Pyrrhopygini.
 </t>
@@ -511,15 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Jemadia hewitsonii a été nommé par Paul Mabille en 1878 sous le nom initial de Pyrrhopyga polyzona[1].
-Nom vernaculaire
-Jemadia hewitsonii se nomme Hewitson's Sabre-wing en anglais[2].
-Sous-espèces
-Jemadia hewitsonii hewitsonii; présent au Brésil et en Guyane
-Jemadia hewitsonii albescens Röber, 1925; présent en Équateur
-Jemadia hewitsonii ovid Evans, 1951; présent en Équateur</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia hewitsonii a été nommé par Paul Mabille en 1878 sous le nom initial de Pyrrhopyga polyzona.
+</t>
         </is>
       </c>
     </row>
@@ -544,81 +553,200 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Nom vernaculaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia hewitsonii se nomme Hewitson's Sabre-wing en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Jemadia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jemadia hewitsonii hewitsonii; présent au Brésil et en Guyane
+Jemadia hewitsonii albescens Röber, 1925; présent en Équateur
+Jemadia hewitsonii ovid Evans, 1951; présent en Équateur</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jemadia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia hewitsonii est un papillon d'une envergure d'environ 35 mm, au corps trapu au thorax rayé noir et blanc en long et à l'abdomen rayé en cercle[3]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia hewitsonii est un papillon d'une envergure d'environ 35 mm, au corps trapu au thorax rayé noir et blanc en long et à l'abdomen rayé en cercle. 
 Les ailes sont de couleur bleue rayées de bandes blanches.
 Le revers est semblable.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Jemadia_hewitsonii</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jemadia_hewitsonii</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Plantes hôtes</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia hewitsonii est présent à Panama, au Venezuela, en Colombie, en Équateur, au Pérou, au Brésil et en Guyane,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Jemadia_hewitsonii</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Jemadia_hewitsonii</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jemadia hewitsonii est présent à Panama, au Venezuela, en Colombie, en Équateur, au Pérou, au Brésil et en Guyane[1],[4].
-Biotope
-Jemadia hewitsonii réside dans la forêt primaire en dessous de 900 m[2],[3].
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jemadia hewitsonii réside dans la forêt primaire en dessous de 900 m,.
 Sur les autres projets Wikimedia :
 Jemadia hewitsonii, sur Wikimedia CommonsJemadia hewitsonii, sur Wikispecies
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jemadia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jemadia_hewitsonii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
